--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="695">
   <si>
     <t>Company</t>
   </si>
@@ -655,27 +655,6 @@
     <t>https://x.com/tejpaul</t>
   </si>
   <si>
-    <t>ispace</t>
-  </si>
-  <si>
-    <t>https://ispace-inc.com</t>
-  </si>
-  <si>
-    <t>Lunar exploration and resource tech</t>
-  </si>
-  <si>
-    <t>Tokyo, Japan</t>
-  </si>
-  <si>
-    <t>https://x.com/ispace_inc</t>
-  </si>
-  <si>
-    <t>https://ispace-inc.com/careers</t>
-  </si>
-  <si>
-    <t>Takeshi Hakamada</t>
-  </si>
-  <si>
     <t>Intuitive Machines</t>
   </si>
   <si>
@@ -1027,28 +1006,28 @@
     <t>https://x.com/qasar</t>
   </si>
   <si>
-    <t>ACS (Advanced Countermeasure Systems)</t>
-  </si>
-  <si>
-    <t>https://acsdefense.com*</t>
-  </si>
-  <si>
-    <t>Counter-drone tech (e.g., Bullfrog)</t>
-  </si>
-  <si>
-    <t>San Diego, CA*</t>
-  </si>
-  <si>
-    <t>https://x.com/acsdefense*</t>
-  </si>
-  <si>
-    <t>https://acsdefense.com/careers*</t>
-  </si>
-  <si>
-    <t>Unknown (ex-Navy engineers)*</t>
-  </si>
-  <si>
-    <t>https://x.com/unknown*</t>
+    <t>Allen Control Systems</t>
+  </si>
+  <si>
+    <t>https://www.allencontrolsystems.com/</t>
+  </si>
+  <si>
+    <t>Counter-drone tech</t>
+  </si>
+  <si>
+    <t>https://x.com/allencontrol</t>
+  </si>
+  <si>
+    <t>https://www.allencontrolsystems.com/company#jobs</t>
+  </si>
+  <si>
+    <t>Michael Wior</t>
+  </si>
+  <si>
+    <t>https://x.com/mikewior</t>
+  </si>
+  <si>
+    <t>acs.jpg</t>
   </si>
   <si>
     <t>VulcanForms</t>
@@ -1282,22 +1261,16 @@
     <t>Rune Technologies</t>
   </si>
   <si>
-    <t>https://runetech.ai*</t>
+    <t>https://www.runetech.co/</t>
   </si>
   <si>
     <t>AI-powered OS for military logistics</t>
   </si>
   <si>
-    <t>Austin, TX*</t>
-  </si>
-  <si>
-    <t>https://x.com/runetech*</t>
-  </si>
-  <si>
-    <t>https://runetech.ai/careers*</t>
-  </si>
-  <si>
-    <t>Unknown*</t>
+    <t>Arlington, VA</t>
+  </si>
+  <si>
+    <t>https://jobs.ashbyhq.com/runetech</t>
   </si>
   <si>
     <t>Cruise Automation</t>
@@ -1850,9 +1823,6 @@
   </si>
   <si>
     <t>Orbital cargo delivery services</t>
-  </si>
-  <si>
-    <t>tandis, CA</t>
   </si>
   <si>
     <t>https://x.com/inversion_space</t>
@@ -2132,7 +2102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2205,6 +2175,10 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2226,7 +2200,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2275,6 +2249,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2577,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I100" si="1">CONCATENATE(MID(B2,FIND("://",B2) + 2 + 1,FIND(".",B2) - (FIND("://",B2) + 2)),"jpg")</f>
+        <f t="shared" ref="I2:I46" si="1">CONCATENATE(MID(B2,FIND("://",B2) + 2 + 1,FIND(".",B2) - (FIND("://",B2) + 2)),"jpg")</f>
         <v>rainmaker.jpg</v>
       </c>
     </row>
@@ -3429,53 +3406,53 @@
         <v>216</v>
       </c>
       <c r="D31" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I31" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>ispace-inc.jpg</v>
+        <v>intuitivemachines.jpg</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="D32" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="I32" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>intuitivemachines.jpg</v>
+        <v>astranis.jpg</v>
       </c>
     </row>
     <row r="33">
@@ -3488,218 +3465,218 @@
       <c r="C33" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>173</v>
+      <c r="D33" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I33" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>astranis.jpg</v>
+        <v>hermeus.jpg</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I34" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>hermeus.jpg</v>
+        <v>boomsupersonic.jpg</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D35" s="12" t="s">
         <v>245</v>
       </c>
+      <c r="D35" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="E35" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I35" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>boomsupersonic.jpg</v>
+        <v>skydio.jpg</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I36" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>skydio.jpg</v>
+        <v>jobyaviation.jpg</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B37" s="9" t="s">
         <v>259</v>
       </c>
+      <c r="B37" s="14" t="s">
+        <v>260</v>
+      </c>
       <c r="C37" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H37" s="6" t="s">
         <v>265</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="I37" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>jobyaviation.jpg</v>
+        <v>archer.jpg</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="14" t="s">
         <v>267</v>
       </c>
+      <c r="B38" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="C38" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G38" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="G38" s="12" t="s">
         <v>273</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="I38" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>archer.jpg</v>
+        <v>leolabs.jpg</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="D39" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="E39" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="H39" s="13" t="s">
         <v>281</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>282</v>
       </c>
       <c r="I39" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>leolabs.jpg</v>
+        <v>fireflyspace.jpg</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D40" s="12" t="s">
         <v>285</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>286</v>
@@ -3707,7 +3684,7 @@
       <c r="F40" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="4" t="s">
         <v>288</v>
       </c>
       <c r="H40" s="6" t="s">
@@ -3715,29 +3692,29 @@
       </c>
       <c r="I40" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>fireflyspace.jpg</v>
+        <v>xwing.jpg</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>173</v>
+      <c r="D41" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G41" s="12" t="s">
         <v>295</v>
       </c>
       <c r="H41" s="6" t="s">
@@ -3745,29 +3722,29 @@
       </c>
       <c r="I41" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>xwing.jpg</v>
+        <v>durin.jpg</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="7" t="s">
         <v>302</v>
       </c>
       <c r="H42" s="6" t="s">
@@ -3775,7 +3752,7 @@
       </c>
       <c r="I42" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>durin.jpg</v>
+        <v>aalo.jpg</v>
       </c>
     </row>
     <row r="43">
@@ -3785,260 +3762,259 @@
       <c r="B43" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>306</v>
-      </c>
       <c r="D43" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="G43" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="13" t="s">
         <v>309</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="I43" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>aalo.jpg</v>
+        <v>buildgiantrobots.jpg</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>311</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>312</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="G44" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="H44" s="13" t="s">
         <v>315</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>316</v>
       </c>
       <c r="I44" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>buildgiantrobots.jpg</v>
+        <v>basepowercompany.jpg</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="C45" s="7" t="s">
         <v>318</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="13" t="s">
         <v>320</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="6" t="s">
         <v>322</v>
       </c>
       <c r="I45" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>basepowercompany.jpg</v>
+        <v>reflectorbital.jpg</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>325</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="13" t="s">
+      <c r="E46" s="6" t="s">
         <v>327</v>
       </c>
+      <c r="F46" s="6" t="s">
+        <v>328</v>
+      </c>
       <c r="G46" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="H46" s="6" t="s">
         <v>329</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>330</v>
       </c>
       <c r="I46" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>reflectorbital.jpg</v>
+        <v>appliedintuition.jpg</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="A47" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="C47" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="I47" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>appliedintuition.jpg</v>
-      </c>
+      <c r="I47" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
+      <c r="X47" s="19"/>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B48" s="16" t="s">
+      <c r="A48" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="B48" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="C48" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="D48" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="E48" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="F48" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="H48" s="17" t="s">
+      <c r="G48" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="I48" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>acsdefense.jpg</v>
-      </c>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
-      <c r="X48" s="18"/>
+      <c r="H48" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I48" s="11" t="str">
+        <f t="shared" ref="I48:I99" si="2">CONCATENATE(MID(B48,FIND("://",B48) + 2 + 1,FIND(".",B48) - (FIND("://",B48) + 2)),"jpg")</f>
+        <v>vulcanforms.jpg</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I49" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>vulcanforms.jpg</v>
+        <f t="shared" si="2"/>
+        <v>figure.jpg</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H50" s="6" t="s">
         <v>361</v>
       </c>
+      <c r="H50" s="7" t="s">
+        <v>362</v>
+      </c>
       <c r="I50" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>figure.jpg</v>
+        <f t="shared" si="2"/>
+        <v>path-robotics.jpg</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>365</v>
+        <v>116</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>366</v>
@@ -4053,8 +4029,8 @@
         <v>369</v>
       </c>
       <c r="I51" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>path-robotics.jpg</v>
+        <f t="shared" si="2"/>
+        <v>iconbuild.jpg</v>
       </c>
     </row>
     <row r="52">
@@ -4068,7 +4044,7 @@
         <v>372</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>116</v>
+        <v>350</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>373</v>
@@ -4083,8 +4059,8 @@
         <v>376</v>
       </c>
       <c r="I52" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>iconbuild.jpg</v>
+        <f t="shared" si="2"/>
+        <v>oklo.jpg</v>
       </c>
     </row>
     <row r="53">
@@ -4098,7 +4074,7 @@
         <v>379</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>380</v>
@@ -4113,8 +4089,8 @@
         <v>383</v>
       </c>
       <c r="I53" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>oklo.jpg</v>
+        <f t="shared" si="2"/>
+        <v>antoraenergy.jpg</v>
       </c>
     </row>
     <row r="54">
@@ -4128,97 +4104,97 @@
         <v>386</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I54" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>antoraenergy.jpg</v>
+        <f t="shared" si="2"/>
+        <v>xendee.jpg</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I55" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>xendee.jpg</v>
+        <f t="shared" si="2"/>
+        <v>cfs.jpg</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H56" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I56" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>cfs.jpg</v>
+        <f t="shared" si="2"/>
+        <v>flyzipline.jpg</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>410</v>
+        <v>116</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>411</v>
@@ -4229,12 +4205,12 @@
       <c r="G57" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="6" t="s">
         <v>414</v>
       </c>
       <c r="I57" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>flyzipline.jpg</v>
+        <f t="shared" si="2"/>
+        <v>pipedreamlabs.jpg</v>
       </c>
     </row>
     <row r="58">
@@ -4248,1207 +4224,1177 @@
         <v>417</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E58" s="6" t="s">
         <v>418</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>419</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>421</v>
+        <v>49</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="I58" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>pipedreamlabs.jpg</v>
+        <f t="shared" si="2"/>
+        <v>www.jpg</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="D59" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="H59" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="I59" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>runetech.jpg</v>
+        <f t="shared" si="2"/>
+        <v>getcruise.jpg</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="D60" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="E60" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D60" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="E60" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="G60" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="H60" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="H60" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="I60" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>getcruise.jpg</v>
+        <f t="shared" si="2"/>
+        <v>saildrone.jpg</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="E61" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="G61" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="H61" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="I61" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>saildrone.jpg</v>
+        <f t="shared" si="2"/>
+        <v>vorto.jpg</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="D62" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="G62" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="H62" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>451</v>
-      </c>
       <c r="I62" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>vorto.jpg</v>
+        <f t="shared" si="2"/>
+        <v>shield.jpg</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="D63" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="E63" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E63" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="G63" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="H63" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="H63" s="7" t="s">
-        <v>458</v>
-      </c>
       <c r="I63" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>shield.jpg</v>
+        <f t="shared" si="2"/>
+        <v>apeel.jpg</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="E64" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="G64" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="H64" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>466</v>
-      </c>
       <c r="I64" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>apeel.jpg</v>
+        <f t="shared" si="2"/>
+        <v>divergent3d.jpg</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="C65" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="D65" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="E65" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="F65" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="G65" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="H65" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="H65" s="7" t="s">
-        <v>474</v>
-      </c>
       <c r="I65" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>divergent3d.jpg</v>
+        <f t="shared" si="2"/>
+        <v>zeitview.jpg</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="H66" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>482</v>
-      </c>
       <c r="I66" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>zeitview.jpg</v>
+        <f t="shared" si="2"/>
+        <v>radiantnuclear.jpg</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>94</v>
+        <v>478</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>19</v>
+        <v>479</v>
       </c>
       <c r="D67" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>96</v>
+        <v>480</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>97</v>
+        <v>481</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I67" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>radiantnuclear.jpg</v>
+        <f t="shared" si="2"/>
+        <v>ablspacesystems.jpg</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C68" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="D68" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="G68" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="H68" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>492</v>
-      </c>
       <c r="I68" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>ablspacesystems.jpg</v>
+        <f t="shared" si="2"/>
+        <v>spinlaunch.jpg</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C69" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="D69" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="E69" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D69" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="F69" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="G69" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="H69" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="H69" s="6" t="s">
-        <v>499</v>
-      </c>
       <c r="I69" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>spinlaunch.jpg</v>
+        <f t="shared" si="2"/>
+        <v>umbra.jpg</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C70" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="E70" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="F70" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="G70" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="H70" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="H70" s="7" t="s">
-        <v>507</v>
-      </c>
       <c r="I70" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>umbra.jpg</v>
+        <f t="shared" si="2"/>
+        <v>machinalabs.jpg</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="D71" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="E71" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="F71" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="G71" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="H71" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>515</v>
-      </c>
       <c r="I71" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>machinalabs.jpg</v>
+        <f t="shared" si="2"/>
+        <v>inviarobotics.jpg</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="D72" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="E72" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="F72" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="G72" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="H72" s="6" t="s">
-        <v>523</v>
-      </c>
       <c r="I72" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>inviarobotics.jpg</v>
+        <f t="shared" si="2"/>
+        <v>spartanradar.jpg</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="C73" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="G73" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="H73" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>531</v>
-      </c>
       <c r="I73" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>spartanradar.jpg</v>
+        <f t="shared" si="2"/>
+        <v>arcboats.jpg</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C74" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="D74" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="G74" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="H74" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>538</v>
-      </c>
       <c r="I74" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>arcboats.jpg</v>
+        <f t="shared" si="2"/>
+        <v>vastspace.jpg</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="D75" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" s="6" t="s">
+      <c r="G75" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="H75" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>545</v>
-      </c>
       <c r="I75" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>vastspace.jpg</v>
+        <f t="shared" si="2"/>
+        <v>freeform.jpg</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="D76" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" s="6" t="s">
+      <c r="G76" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="H76" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>552</v>
-      </c>
       <c r="I76" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>freeform.jpg</v>
+        <f t="shared" si="2"/>
+        <v>firstresonance.jpg</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="D77" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D77" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" s="6" t="s">
+      <c r="G77" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="H77" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>559</v>
-      </c>
       <c r="I77" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>firstresonance.jpg</v>
+        <f t="shared" si="2"/>
+        <v>epsilon3.jpg</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>560</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="D78" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="F78" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="G78" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="H78" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="H78" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="I78" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>epsilon3.jpg</v>
+        <f t="shared" si="2"/>
+        <v>harbingerev.jpg</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="C79" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="D79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="G79" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="H79" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>574</v>
-      </c>
       <c r="I79" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>harbingerev.jpg</v>
+        <f t="shared" si="2"/>
+        <v>impulsespace.jpg</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="C80" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="D80" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D80" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="G80" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="H80" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>580</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>581</v>
-      </c>
       <c r="I80" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>impulsespace.jpg</v>
+        <f t="shared" si="2"/>
+        <v>chaosind.jpg</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="D81" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="D81" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E81" s="6" t="s">
+      <c r="G81" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="H81" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>588</v>
-      </c>
       <c r="I81" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>chaosind.jpg</v>
+        <f t="shared" si="2"/>
+        <v>k2space.jpg</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="D82" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="D82" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E82" s="6" t="s">
+      <c r="G82" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="H82" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>595</v>
-      </c>
       <c r="I82" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>k2space.jpg</v>
+        <f t="shared" si="2"/>
+        <v>galvanick.jpg</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="D83" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D83" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E83" s="6" t="s">
+      <c r="G83" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="H83" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>602</v>
-      </c>
       <c r="I83" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>galvanick.jpg</v>
+        <f t="shared" si="2"/>
+        <v>astroforge.jpg</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="D84" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="D84" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E84" s="6" t="s">
+      <c r="G84" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="H84" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>609</v>
-      </c>
       <c r="I84" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>astroforge.jpg</v>
+        <f t="shared" si="2"/>
+        <v>inversion.jpg</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="D85" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="G85" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="E85" s="6" t="s">
+      <c r="H85" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="F85" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>617</v>
-      </c>
       <c r="I85" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>inversion.jpg</v>
+        <f t="shared" si="2"/>
+        <v>anysignal.jpg</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="F86" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="G86" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="D86" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="6" t="s">
+      <c r="H86" s="7" t="s">
         <v>621</v>
       </c>
-      <c r="F86" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>624</v>
-      </c>
       <c r="I86" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>anysignal.jpg</v>
+        <f t="shared" si="2"/>
+        <v>firestormlabs.jpg</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="F87" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="G87" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="D87" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="E87" s="6" t="s">
+      <c r="H87" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="F87" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>630</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>631</v>
-      </c>
       <c r="I87" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>firestormlabs.jpg</v>
+        <f t="shared" si="2"/>
+        <v>arbor.jpg</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>632</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="D88" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="H88" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="F88" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="H88" s="6" t="s">
-        <v>638</v>
-      </c>
       <c r="I88" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>arbor.jpg</v>
+        <f t="shared" si="2"/>
+        <v>oursky.jpg</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="F89" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="G89" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="D89" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="H89" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="F89" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>644</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>645</v>
-      </c>
       <c r="I89" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>oursky.jpg</v>
+        <f t="shared" si="2"/>
+        <v>senrasystems.jpg</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>645</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="G90" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="D90" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="H90" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="F90" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>651</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>652</v>
-      </c>
       <c r="I90" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>senrasystems.jpg</v>
+        <f t="shared" si="2"/>
+        <v>hgen.jpg</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="D91" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="E91" s="6" t="s">
         <v>654</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="D91" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E91" s="6" t="s">
+      <c r="G91" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="H91" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>658</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>659</v>
-      </c>
       <c r="I91" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>hgen.jpg</v>
+        <f t="shared" si="2"/>
+        <v>ethosspace.jpg</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="D92" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="G92" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="H92" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="F92" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="H92" s="7" t="s">
-        <v>667</v>
-      </c>
       <c r="I92" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>ethosspace.jpg</v>
+        <f t="shared" si="2"/>
+        <v>openx.jpg</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="E93" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>670</v>
       </c>
-      <c r="D93" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E93" s="6" t="s">
+      <c r="G93" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="H93" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>674</v>
-      </c>
       <c r="I93" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>openx.jpg</v>
+        <f t="shared" si="2"/>
+        <v>stelleng.jpg</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="D94" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="G94" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="H94" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>682</v>
-      </c>
       <c r="I94" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>stelleng.jpg</v>
+        <f t="shared" si="2"/>
+        <v>sift.jpg</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="E95" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="D95" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="6" t="s">
+      <c r="G95" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="H95" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>688</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>689</v>
-      </c>
       <c r="I95" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>sift.jpg</v>
+        <f t="shared" si="2"/>
+        <v>exoterracorp.jpg</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>691</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>693</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="G96" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="I96" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>exoterracorp.jpg</v>
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="I97" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="7" t="s">
-        <v>700</v>
+        <v>691</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>693</v>
       </c>
       <c r="I98" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="I99" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="I100" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5566,150 +5512,150 @@
     <hyperlink r:id="rId110" ref="B32"/>
     <hyperlink r:id="rId111" ref="E32"/>
     <hyperlink r:id="rId112" ref="F32"/>
-    <hyperlink r:id="rId113" ref="B33"/>
-    <hyperlink r:id="rId114" ref="E33"/>
-    <hyperlink r:id="rId115" ref="F33"/>
-    <hyperlink r:id="rId116" ref="H33"/>
-    <hyperlink r:id="rId117" ref="B34"/>
-    <hyperlink r:id="rId118" ref="E34"/>
-    <hyperlink r:id="rId119" ref="F34"/>
-    <hyperlink r:id="rId120" ref="H34"/>
-    <hyperlink r:id="rId121" ref="B35"/>
-    <hyperlink r:id="rId122" ref="E35"/>
-    <hyperlink r:id="rId123" ref="F35"/>
-    <hyperlink r:id="rId124" ref="H35"/>
-    <hyperlink r:id="rId125" ref="B36"/>
-    <hyperlink r:id="rId126" ref="E36"/>
-    <hyperlink r:id="rId127" ref="F36"/>
-    <hyperlink r:id="rId128" ref="H36"/>
-    <hyperlink r:id="rId129" ref="B37"/>
-    <hyperlink r:id="rId130" ref="E37"/>
-    <hyperlink r:id="rId131" ref="F37"/>
-    <hyperlink r:id="rId132" ref="H37"/>
+    <hyperlink r:id="rId113" ref="H32"/>
+    <hyperlink r:id="rId114" ref="B33"/>
+    <hyperlink r:id="rId115" ref="E33"/>
+    <hyperlink r:id="rId116" ref="F33"/>
+    <hyperlink r:id="rId117" ref="H33"/>
+    <hyperlink r:id="rId118" ref="B34"/>
+    <hyperlink r:id="rId119" ref="E34"/>
+    <hyperlink r:id="rId120" ref="F34"/>
+    <hyperlink r:id="rId121" ref="H34"/>
+    <hyperlink r:id="rId122" ref="B35"/>
+    <hyperlink r:id="rId123" ref="E35"/>
+    <hyperlink r:id="rId124" ref="F35"/>
+    <hyperlink r:id="rId125" ref="H35"/>
+    <hyperlink r:id="rId126" ref="B36"/>
+    <hyperlink r:id="rId127" ref="E36"/>
+    <hyperlink r:id="rId128" ref="F36"/>
+    <hyperlink r:id="rId129" ref="H36"/>
+    <hyperlink r:id="rId130" ref="B37"/>
+    <hyperlink r:id="rId131" ref="E37"/>
+    <hyperlink r:id="rId132" ref="F37"/>
     <hyperlink r:id="rId133" ref="B38"/>
     <hyperlink r:id="rId134" ref="E38"/>
     <hyperlink r:id="rId135" ref="F38"/>
-    <hyperlink r:id="rId136" ref="B39"/>
-    <hyperlink r:id="rId137" ref="E39"/>
-    <hyperlink r:id="rId138" ref="F39"/>
-    <hyperlink r:id="rId139" ref="H39"/>
-    <hyperlink r:id="rId140" ref="B40"/>
-    <hyperlink r:id="rId141" ref="E40"/>
-    <hyperlink r:id="rId142" ref="F40"/>
-    <hyperlink r:id="rId143" ref="H40"/>
-    <hyperlink r:id="rId144" ref="B41"/>
-    <hyperlink r:id="rId145" ref="E41"/>
-    <hyperlink r:id="rId146" ref="F41"/>
-    <hyperlink r:id="rId147" ref="H41"/>
-    <hyperlink r:id="rId148" ref="B42"/>
-    <hyperlink r:id="rId149" ref="E42"/>
-    <hyperlink r:id="rId150" ref="F42"/>
-    <hyperlink r:id="rId151" ref="H42"/>
-    <hyperlink r:id="rId152" ref="B43"/>
-    <hyperlink r:id="rId153" ref="E43"/>
-    <hyperlink r:id="rId154" ref="F43"/>
-    <hyperlink r:id="rId155" ref="H43"/>
-    <hyperlink r:id="rId156" ref="B44"/>
-    <hyperlink r:id="rId157" ref="E44"/>
-    <hyperlink r:id="rId158" ref="F44"/>
-    <hyperlink r:id="rId159" ref="H44"/>
-    <hyperlink r:id="rId160" ref="B45"/>
-    <hyperlink r:id="rId161" ref="E45"/>
-    <hyperlink r:id="rId162" ref="F45"/>
-    <hyperlink r:id="rId163" ref="H45"/>
-    <hyperlink r:id="rId164" ref="B46"/>
-    <hyperlink r:id="rId165" ref="E46"/>
-    <hyperlink r:id="rId166" ref="F46"/>
-    <hyperlink r:id="rId167" ref="H46"/>
-    <hyperlink r:id="rId168" ref="B47"/>
-    <hyperlink r:id="rId169" ref="E47"/>
-    <hyperlink r:id="rId170" ref="F47"/>
-    <hyperlink r:id="rId171" ref="H47"/>
-    <hyperlink r:id="rId172" ref="E48"/>
-    <hyperlink r:id="rId173" ref="F48"/>
-    <hyperlink r:id="rId174" ref="H48"/>
-    <hyperlink r:id="rId175" ref="B49"/>
-    <hyperlink r:id="rId176" ref="E49"/>
-    <hyperlink r:id="rId177" ref="F49"/>
-    <hyperlink r:id="rId178" ref="H49"/>
-    <hyperlink r:id="rId179" ref="B50"/>
-    <hyperlink r:id="rId180" ref="E50"/>
-    <hyperlink r:id="rId181" ref="F50"/>
-    <hyperlink r:id="rId182" ref="H50"/>
-    <hyperlink r:id="rId183" ref="B51"/>
-    <hyperlink r:id="rId184" ref="E51"/>
-    <hyperlink r:id="rId185" ref="F51"/>
-    <hyperlink r:id="rId186" ref="B52"/>
-    <hyperlink r:id="rId187" ref="E52"/>
-    <hyperlink r:id="rId188" ref="F52"/>
-    <hyperlink r:id="rId189" ref="B53"/>
-    <hyperlink r:id="rId190" ref="E53"/>
-    <hyperlink r:id="rId191" ref="F53"/>
-    <hyperlink r:id="rId192" ref="B54"/>
-    <hyperlink r:id="rId193" ref="E54"/>
-    <hyperlink r:id="rId194" ref="F54"/>
-    <hyperlink r:id="rId195" ref="B55"/>
-    <hyperlink r:id="rId196" ref="E55"/>
-    <hyperlink r:id="rId197" ref="F55"/>
-    <hyperlink r:id="rId198" ref="B56"/>
-    <hyperlink r:id="rId199" ref="E56"/>
-    <hyperlink r:id="rId200" ref="F56"/>
-    <hyperlink r:id="rId201" ref="B57"/>
-    <hyperlink r:id="rId202" ref="E57"/>
-    <hyperlink r:id="rId203" ref="F57"/>
-    <hyperlink r:id="rId204" ref="B58"/>
-    <hyperlink r:id="rId205" ref="E58"/>
-    <hyperlink r:id="rId206" ref="F58"/>
-    <hyperlink r:id="rId207" ref="H58"/>
-    <hyperlink r:id="rId208" ref="E59"/>
-    <hyperlink r:id="rId209" ref="F59"/>
-    <hyperlink r:id="rId210" ref="H59"/>
+    <hyperlink r:id="rId136" ref="H38"/>
+    <hyperlink r:id="rId137" ref="B39"/>
+    <hyperlink r:id="rId138" ref="E39"/>
+    <hyperlink r:id="rId139" ref="F39"/>
+    <hyperlink r:id="rId140" ref="H39"/>
+    <hyperlink r:id="rId141" ref="B40"/>
+    <hyperlink r:id="rId142" ref="E40"/>
+    <hyperlink r:id="rId143" ref="F40"/>
+    <hyperlink r:id="rId144" ref="H40"/>
+    <hyperlink r:id="rId145" ref="B41"/>
+    <hyperlink r:id="rId146" ref="E41"/>
+    <hyperlink r:id="rId147" ref="F41"/>
+    <hyperlink r:id="rId148" ref="H41"/>
+    <hyperlink r:id="rId149" ref="B42"/>
+    <hyperlink r:id="rId150" ref="E42"/>
+    <hyperlink r:id="rId151" ref="F42"/>
+    <hyperlink r:id="rId152" ref="H42"/>
+    <hyperlink r:id="rId153" ref="B43"/>
+    <hyperlink r:id="rId154" ref="E43"/>
+    <hyperlink r:id="rId155" ref="F43"/>
+    <hyperlink r:id="rId156" ref="H43"/>
+    <hyperlink r:id="rId157" ref="B44"/>
+    <hyperlink r:id="rId158" ref="E44"/>
+    <hyperlink r:id="rId159" ref="F44"/>
+    <hyperlink r:id="rId160" ref="H44"/>
+    <hyperlink r:id="rId161" ref="B45"/>
+    <hyperlink r:id="rId162" ref="E45"/>
+    <hyperlink r:id="rId163" ref="F45"/>
+    <hyperlink r:id="rId164" ref="H45"/>
+    <hyperlink r:id="rId165" ref="B46"/>
+    <hyperlink r:id="rId166" ref="E46"/>
+    <hyperlink r:id="rId167" ref="F46"/>
+    <hyperlink r:id="rId168" ref="H46"/>
+    <hyperlink r:id="rId169" ref="B47"/>
+    <hyperlink r:id="rId170" ref="E47"/>
+    <hyperlink r:id="rId171" location="jobs" ref="F47"/>
+    <hyperlink r:id="rId172" ref="H47"/>
+    <hyperlink r:id="rId173" ref="B48"/>
+    <hyperlink r:id="rId174" ref="E48"/>
+    <hyperlink r:id="rId175" ref="F48"/>
+    <hyperlink r:id="rId176" ref="H48"/>
+    <hyperlink r:id="rId177" ref="B49"/>
+    <hyperlink r:id="rId178" ref="E49"/>
+    <hyperlink r:id="rId179" ref="F49"/>
+    <hyperlink r:id="rId180" ref="H49"/>
+    <hyperlink r:id="rId181" ref="B50"/>
+    <hyperlink r:id="rId182" ref="E50"/>
+    <hyperlink r:id="rId183" ref="F50"/>
+    <hyperlink r:id="rId184" ref="B51"/>
+    <hyperlink r:id="rId185" ref="E51"/>
+    <hyperlink r:id="rId186" ref="F51"/>
+    <hyperlink r:id="rId187" ref="B52"/>
+    <hyperlink r:id="rId188" ref="E52"/>
+    <hyperlink r:id="rId189" ref="F52"/>
+    <hyperlink r:id="rId190" ref="B53"/>
+    <hyperlink r:id="rId191" ref="E53"/>
+    <hyperlink r:id="rId192" ref="F53"/>
+    <hyperlink r:id="rId193" ref="B54"/>
+    <hyperlink r:id="rId194" ref="E54"/>
+    <hyperlink r:id="rId195" ref="F54"/>
+    <hyperlink r:id="rId196" ref="B55"/>
+    <hyperlink r:id="rId197" ref="E55"/>
+    <hyperlink r:id="rId198" ref="F55"/>
+    <hyperlink r:id="rId199" ref="B56"/>
+    <hyperlink r:id="rId200" ref="E56"/>
+    <hyperlink r:id="rId201" ref="F56"/>
+    <hyperlink r:id="rId202" ref="B57"/>
+    <hyperlink r:id="rId203" ref="E57"/>
+    <hyperlink r:id="rId204" ref="F57"/>
+    <hyperlink r:id="rId205" ref="H57"/>
+    <hyperlink r:id="rId206" ref="B58"/>
+    <hyperlink r:id="rId207" ref="F58"/>
+    <hyperlink r:id="rId208" ref="B59"/>
+    <hyperlink r:id="rId209" ref="E59"/>
+    <hyperlink r:id="rId210" ref="F59"/>
     <hyperlink r:id="rId211" ref="B60"/>
     <hyperlink r:id="rId212" ref="E60"/>
     <hyperlink r:id="rId213" ref="F60"/>
-    <hyperlink r:id="rId214" ref="B61"/>
-    <hyperlink r:id="rId215" ref="E61"/>
-    <hyperlink r:id="rId216" ref="F61"/>
-    <hyperlink r:id="rId217" ref="H61"/>
-    <hyperlink r:id="rId218" ref="B62"/>
-    <hyperlink r:id="rId219" ref="E62"/>
-    <hyperlink r:id="rId220" ref="F62"/>
-    <hyperlink r:id="rId221" ref="H62"/>
+    <hyperlink r:id="rId214" ref="H60"/>
+    <hyperlink r:id="rId215" ref="B61"/>
+    <hyperlink r:id="rId216" ref="E61"/>
+    <hyperlink r:id="rId217" ref="F61"/>
+    <hyperlink r:id="rId218" ref="H61"/>
+    <hyperlink r:id="rId219" ref="B62"/>
+    <hyperlink r:id="rId220" ref="E62"/>
+    <hyperlink r:id="rId221" ref="F62"/>
     <hyperlink r:id="rId222" ref="B63"/>
     <hyperlink r:id="rId223" ref="E63"/>
     <hyperlink r:id="rId224" ref="F63"/>
-    <hyperlink r:id="rId225" ref="B64"/>
-    <hyperlink r:id="rId226" ref="E64"/>
-    <hyperlink r:id="rId227" ref="F64"/>
-    <hyperlink r:id="rId228" ref="H64"/>
+    <hyperlink r:id="rId225" ref="H63"/>
+    <hyperlink r:id="rId226" ref="B64"/>
+    <hyperlink r:id="rId227" ref="E64"/>
+    <hyperlink r:id="rId228" ref="F64"/>
     <hyperlink r:id="rId229" ref="B65"/>
     <hyperlink r:id="rId230" ref="E65"/>
     <hyperlink r:id="rId231" ref="F65"/>
-    <hyperlink r:id="rId232" ref="B66"/>
-    <hyperlink r:id="rId233" ref="E66"/>
-    <hyperlink r:id="rId234" ref="F66"/>
-    <hyperlink r:id="rId235" ref="H66"/>
+    <hyperlink r:id="rId232" ref="H65"/>
+    <hyperlink r:id="rId233" ref="B66"/>
+    <hyperlink r:id="rId234" ref="E66"/>
+    <hyperlink r:id="rId235" ref="F66"/>
     <hyperlink r:id="rId236" ref="B67"/>
     <hyperlink r:id="rId237" ref="E67"/>
     <hyperlink r:id="rId238" ref="F67"/>
     <hyperlink r:id="rId239" ref="B68"/>
     <hyperlink r:id="rId240" ref="E68"/>
     <hyperlink r:id="rId241" ref="F68"/>
-    <hyperlink r:id="rId242" ref="B69"/>
-    <hyperlink r:id="rId243" ref="E69"/>
-    <hyperlink r:id="rId244" ref="F69"/>
-    <hyperlink r:id="rId245" ref="H69"/>
+    <hyperlink r:id="rId242" ref="H68"/>
+    <hyperlink r:id="rId243" ref="B69"/>
+    <hyperlink r:id="rId244" ref="E69"/>
+    <hyperlink r:id="rId245" ref="F69"/>
     <hyperlink r:id="rId246" ref="B70"/>
     <hyperlink r:id="rId247" ref="E70"/>
     <hyperlink r:id="rId248" ref="F70"/>
-    <hyperlink r:id="rId249" ref="B71"/>
-    <hyperlink r:id="rId250" ref="E71"/>
-    <hyperlink r:id="rId251" ref="F71"/>
-    <hyperlink r:id="rId252" ref="H71"/>
-    <hyperlink r:id="rId253" ref="B72"/>
-    <hyperlink r:id="rId254" ref="E72"/>
-    <hyperlink r:id="rId255" ref="F72"/>
-    <hyperlink r:id="rId256" ref="H72"/>
+    <hyperlink r:id="rId249" ref="H70"/>
+    <hyperlink r:id="rId250" ref="B71"/>
+    <hyperlink r:id="rId251" ref="E71"/>
+    <hyperlink r:id="rId252" ref="F71"/>
+    <hyperlink r:id="rId253" ref="H71"/>
+    <hyperlink r:id="rId254" ref="B72"/>
+    <hyperlink r:id="rId255" ref="E72"/>
+    <hyperlink r:id="rId256" ref="F72"/>
     <hyperlink r:id="rId257" ref="B73"/>
     <hyperlink r:id="rId258" ref="E73"/>
     <hyperlink r:id="rId259" ref="F73"/>
@@ -5722,20 +5668,20 @@
     <hyperlink r:id="rId266" ref="B76"/>
     <hyperlink r:id="rId267" ref="E76"/>
     <hyperlink r:id="rId268" ref="F76"/>
-    <hyperlink r:id="rId269" ref="B77"/>
-    <hyperlink r:id="rId270" ref="E77"/>
-    <hyperlink r:id="rId271" ref="F77"/>
-    <hyperlink r:id="rId272" ref="H77"/>
+    <hyperlink r:id="rId269" ref="H76"/>
+    <hyperlink r:id="rId270" ref="B77"/>
+    <hyperlink r:id="rId271" ref="E77"/>
+    <hyperlink r:id="rId272" ref="F77"/>
     <hyperlink r:id="rId273" ref="B78"/>
     <hyperlink r:id="rId274" ref="E78"/>
     <hyperlink r:id="rId275" ref="F78"/>
     <hyperlink r:id="rId276" ref="B79"/>
     <hyperlink r:id="rId277" ref="E79"/>
     <hyperlink r:id="rId278" ref="F79"/>
-    <hyperlink r:id="rId279" ref="B80"/>
+    <hyperlink r:id="rId279" ref="H79"/>
     <hyperlink r:id="rId280" ref="E80"/>
     <hyperlink r:id="rId281" ref="F80"/>
-    <hyperlink r:id="rId282" ref="H80"/>
+    <hyperlink r:id="rId282" ref="B81"/>
     <hyperlink r:id="rId283" ref="E81"/>
     <hyperlink r:id="rId284" ref="F81"/>
     <hyperlink r:id="rId285" ref="B82"/>
@@ -5753,34 +5699,31 @@
     <hyperlink r:id="rId297" ref="B86"/>
     <hyperlink r:id="rId298" ref="E86"/>
     <hyperlink r:id="rId299" ref="F86"/>
-    <hyperlink r:id="rId300" ref="B87"/>
-    <hyperlink r:id="rId301" ref="E87"/>
-    <hyperlink r:id="rId302" ref="F87"/>
-    <hyperlink r:id="rId303" ref="E88"/>
-    <hyperlink r:id="rId304" ref="F88"/>
-    <hyperlink r:id="rId305" ref="H88"/>
-    <hyperlink r:id="rId306" ref="B89"/>
-    <hyperlink r:id="rId307" ref="E89"/>
-    <hyperlink r:id="rId308" ref="F89"/>
-    <hyperlink r:id="rId309" ref="E90"/>
-    <hyperlink r:id="rId310" ref="F90"/>
-    <hyperlink r:id="rId311" ref="E91"/>
-    <hyperlink r:id="rId312" ref="F91"/>
-    <hyperlink r:id="rId313" ref="E92"/>
-    <hyperlink r:id="rId314" ref="F92"/>
+    <hyperlink r:id="rId300" ref="E87"/>
+    <hyperlink r:id="rId301" ref="F87"/>
+    <hyperlink r:id="rId302" ref="H87"/>
+    <hyperlink r:id="rId303" ref="B88"/>
+    <hyperlink r:id="rId304" ref="E88"/>
+    <hyperlink r:id="rId305" ref="F88"/>
+    <hyperlink r:id="rId306" ref="E89"/>
+    <hyperlink r:id="rId307" ref="F89"/>
+    <hyperlink r:id="rId308" ref="E90"/>
+    <hyperlink r:id="rId309" ref="F90"/>
+    <hyperlink r:id="rId310" ref="E91"/>
+    <hyperlink r:id="rId311" ref="F91"/>
+    <hyperlink r:id="rId312" ref="E92"/>
+    <hyperlink r:id="rId313" ref="F92"/>
+    <hyperlink r:id="rId314" ref="H92"/>
     <hyperlink r:id="rId315" ref="E93"/>
     <hyperlink r:id="rId316" ref="F93"/>
-    <hyperlink r:id="rId317" ref="H93"/>
-    <hyperlink r:id="rId318" ref="E94"/>
-    <hyperlink r:id="rId319" ref="F94"/>
+    <hyperlink r:id="rId317" ref="E94"/>
+    <hyperlink r:id="rId318" ref="F94"/>
+    <hyperlink r:id="rId319" ref="B95"/>
     <hyperlink r:id="rId320" ref="E95"/>
     <hyperlink r:id="rId321" ref="F95"/>
-    <hyperlink r:id="rId322" ref="B96"/>
-    <hyperlink r:id="rId323" ref="E96"/>
-    <hyperlink r:id="rId324" ref="F96"/>
-    <hyperlink r:id="rId325" ref="H96"/>
-    <hyperlink r:id="rId326" ref="H99"/>
+    <hyperlink r:id="rId322" ref="H95"/>
+    <hyperlink r:id="rId323" ref="H98"/>
   </hyperlinks>
-  <drawing r:id="rId327"/>
+  <drawing r:id="rId324"/>
 </worksheet>
 </file>
--- a/data/companies.xlsx
+++ b/data/companies.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="661">
   <si>
     <t>Company</t>
   </si>
@@ -403,9 +403,6 @@
     <t>3D-printed rockets</t>
   </si>
   <si>
-    <t>Long Beach, CA</t>
-  </si>
-  <si>
     <t>https://x.com/relativityspace</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Electric consumer &amp; fleet vehicles</t>
   </si>
   <si>
-    <t>Irvine, CA</t>
-  </si>
-  <si>
     <t>https://x.com/rivian</t>
   </si>
   <si>
@@ -472,9 +466,6 @@
     <t>Small satellite launch systems</t>
   </si>
   <si>
-    <t>Huntington Beach, CA</t>
-  </si>
-  <si>
     <t>https://x.com/RocketLab</t>
   </si>
   <si>
@@ -487,6 +478,9 @@
     <t>https://x.com/Peter_J_Beck</t>
   </si>
   <si>
+    <t>rocketlab.jpg</t>
+  </si>
+  <si>
     <t>Tesla</t>
   </si>
   <si>
@@ -511,7 +505,7 @@
     <t>Data systems for defense/industry</t>
   </si>
   <si>
-    <t>Palo Alto, CA</t>
+    <t>Bay Area, CA</t>
   </si>
   <si>
     <t>https://x.com/palantirtech</t>
@@ -532,9 +526,6 @@
     <t>Global supply chain solutions</t>
   </si>
   <si>
-    <t>San Francisco, CA</t>
-  </si>
-  <si>
     <t>https://x.com/flexport</t>
   </si>
   <si>
@@ -727,7 +718,7 @@
     <t>Supersonic passenger aircraft</t>
   </si>
   <si>
-    <t>Centennial, CO</t>
+    <t>Denver, CO</t>
   </si>
   <si>
     <t>https://x.com/boomaero</t>
@@ -751,9 +742,6 @@
     <t>Autonomous drones</t>
   </si>
   <si>
-    <t>Redwood City, CA</t>
-  </si>
-  <si>
     <t>https://x.com/skydio</t>
   </si>
   <si>
@@ -775,9 +763,6 @@
     <t>Electric vertical takeoff and landing (eVTOL)</t>
   </si>
   <si>
-    <t>Santa Cruz, CA</t>
-  </si>
-  <si>
     <t>https://x.com/jobyaviation</t>
   </si>
   <si>
@@ -799,9 +784,6 @@
     <t>Electric air taxis (eVTOL)</t>
   </si>
   <si>
-    <t>San Jose, CA</t>
-  </si>
-  <si>
     <t>https://x.com/archer_aviation</t>
   </si>
   <si>
@@ -823,9 +805,6 @@
     <t>Low Earth orbit mapping and space awareness</t>
   </si>
   <si>
-    <t>Menlo Park, CA</t>
-  </si>
-  <si>
     <t>https://x.com/leolabs_space</t>
   </si>
   <si>
@@ -862,6 +841,9 @@
     <t>https://x.com/jason_lil_kim</t>
   </si>
   <si>
+    <t>firefly.jpg</t>
+  </si>
+  <si>
     <t>Xwing</t>
   </si>
   <si>
@@ -925,6 +907,9 @@
     <t>https://x.com/mattloszak</t>
   </si>
   <si>
+    <t>aaloatomics.jpg</t>
+  </si>
+  <si>
     <t>TerraFirma</t>
   </si>
   <si>
@@ -961,6 +946,9 @@
     <t>https://x.com/ZachBDell</t>
   </si>
   <si>
+    <t>basepower.jpg</t>
+  </si>
+  <si>
     <t>Reflect Orbital</t>
   </si>
   <si>
@@ -991,9 +979,6 @@
     <t>Simulation software for autonomous vehicles</t>
   </si>
   <si>
-    <t>Mountain View, CA</t>
-  </si>
-  <si>
     <t>https://x.com/AppliedInt</t>
   </si>
   <si>
@@ -1063,9 +1048,6 @@
     <t>Humanoid robots for industrial tasks</t>
   </si>
   <si>
-    <t>Sunnyvale, CA</t>
-  </si>
-  <si>
     <t>https://x.com/figure_robot</t>
   </si>
   <si>
@@ -1102,7 +1084,7 @@
     <t>https://x.com/andy_lonsberry*, https://x.com/alexlonsberry*</t>
   </si>
   <si>
-    <t>Icon</t>
+    <t>Icon 3D</t>
   </si>
   <si>
     <t>https://iconbuild.com</t>
@@ -1222,9 +1204,6 @@
     <t>Autonomous drones for delivery</t>
   </si>
   <si>
-    <t>South San Francisco, CA</t>
-  </si>
-  <si>
     <t>https://x.com/zipline</t>
   </si>
   <si>
@@ -1273,27 +1252,6 @@
     <t>https://jobs.ashbyhq.com/runetech</t>
   </si>
   <si>
-    <t>Cruise Automation</t>
-  </si>
-  <si>
-    <t>https://getcruise.com</t>
-  </si>
-  <si>
-    <t>Self-driving cars with AI</t>
-  </si>
-  <si>
-    <t>https://x.com/cruise</t>
-  </si>
-  <si>
-    <t>https://getcruise.com/careers</t>
-  </si>
-  <si>
-    <t>Kyle Vogt, Dan Kan</t>
-  </si>
-  <si>
-    <t>https://x.com/kvogt*, https://x.com/dankan*</t>
-  </si>
-  <si>
     <t>Saildrone</t>
   </si>
   <si>
@@ -1303,9 +1261,6 @@
     <t>Autonomous ocean drones for data</t>
   </si>
   <si>
-    <t>Alameda, CA</t>
-  </si>
-  <si>
     <t>https://x.com/saildrone</t>
   </si>
   <si>
@@ -1327,9 +1282,6 @@
     <t>AI-optimized supply chain solutions</t>
   </si>
   <si>
-    <t>Denver, CO</t>
-  </si>
-  <si>
     <t>https://x.com/vortoai*</t>
   </si>
   <si>
@@ -1363,30 +1315,6 @@
     <t>https://x.com/ryantseng*, https://x.com/brandontseng*</t>
   </si>
   <si>
-    <t>Apeel</t>
-  </si>
-  <si>
-    <t>https://apeel.com</t>
-  </si>
-  <si>
-    <t>Plant-derived coating for produce</t>
-  </si>
-  <si>
-    <t>Goleta, CA</t>
-  </si>
-  <si>
-    <t>https://x.com/apeeltech</t>
-  </si>
-  <si>
-    <t>https://apeel.com/careers</t>
-  </si>
-  <si>
-    <t>James Rogers</t>
-  </si>
-  <si>
-    <t>https://x.com/jamesrogers*</t>
-  </si>
-  <si>
     <t>Divergent</t>
   </si>
   <si>
@@ -1396,9 +1324,6 @@
     <t>Digital manufacturing systems</t>
   </si>
   <si>
-    <t>Torrance, CA</t>
-  </si>
-  <si>
     <t>https://x.com/divergent3d</t>
   </si>
   <si>
@@ -1420,9 +1345,6 @@
     <t>Inspection software for visual data</t>
   </si>
   <si>
-    <t>Santa Monica, CA</t>
-  </si>
-  <si>
     <t>https://x.com/zeitview</t>
   </si>
   <si>
@@ -1495,9 +1417,6 @@
     <t>Earth observation satellites (SAR)</t>
   </si>
   <si>
-    <t>Santa Barbara, CA</t>
-  </si>
-  <si>
     <t>https://x.com/umbraspacesys</t>
   </si>
   <si>
@@ -1519,9 +1438,6 @@
     <t>Robotic manufacturing platforms</t>
   </si>
   <si>
-    <t>Chatsworth, CA</t>
-  </si>
-  <si>
     <t>https://x.com/machinalabs</t>
   </si>
   <si>
@@ -1543,9 +1459,6 @@
     <t>Warehouse automation robotics</t>
   </si>
   <si>
-    <t>Westlake Village, CA</t>
-  </si>
-  <si>
     <t>https://x.com/inviarobotics</t>
   </si>
   <si>
@@ -1567,9 +1480,6 @@
     <t>Mobility sensing radar software/hardware</t>
   </si>
   <si>
-    <t>Los Alamitos, CA</t>
-  </si>
-  <si>
     <t>https://x.com/spartanradar</t>
   </si>
   <si>
@@ -1696,9 +1606,6 @@
     <t>Electric vehicle platform for commercial</t>
   </si>
   <si>
-    <t>Gardena, CA</t>
-  </si>
-  <si>
     <t>https://x.com/harbingerev</t>
   </si>
   <si>
@@ -1972,9 +1879,6 @@
     <t>Lunar resource utilization tech</t>
   </si>
   <si>
-    <t>Mar Vista, CA</t>
-  </si>
-  <si>
     <t>https://x.com/ethosspace*</t>
   </si>
   <si>
@@ -2017,9 +1921,6 @@
     <t>Software for engineering management</t>
   </si>
   <si>
-    <t>Marina Del Rey, CA</t>
-  </si>
-  <si>
     <t>https://x.com/stelleng*</t>
   </si>
   <si>
@@ -2060,9 +1961,6 @@
   </si>
   <si>
     <t>Solar electric propulsion for space</t>
-  </si>
-  <si>
-    <t>Littleton, CO</t>
   </si>
   <si>
     <t>https://x.com/exoterracorp</t>
@@ -2554,7 +2452,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="7" t="str">
-        <f t="shared" ref="I2:I46" si="1">CONCATENATE(MID(B2,FIND("://",B2) + 2 + 1,FIND(".",B2) - (FIND("://",B2) + 2)),"jpg")</f>
+        <f t="shared" ref="I2:I21" si="1">CONCATENATE(MID(B2,FIND("://",B2) + 2 + 1,FIND(".",B2) - (FIND("://",B2) + 2)),"jpg")</f>
         <v>rainmaker.jpg</v>
       </c>
     </row>
@@ -3046,19 +2944,19 @@
         <v>129</v>
       </c>
       <c r="D19" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="I19" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3067,28 +2965,28 @@
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>141</v>
       </c>
       <c r="I20" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3097,28 +2995,28 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="H21" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="I21" s="11" t="str">
         <f t="shared" si="1"/>
@@ -3127,775 +3025,771 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="D22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="H22" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="I22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="I22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>rocketlabusa.jpg</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>141</v>
-      </c>
       <c r="I23" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I23:I38" si="2">CONCATENATE(MID(B23,FIND("://",B23) + 2 + 1,FIND(".",B23) - (FIND("://",B23) + 2)),"jpg")</f>
         <v>tesla.jpg</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I24" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>palantir.jpg</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="H25" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>177</v>
-      </c>
       <c r="I25" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>flexport.jpg</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H26" s="15" t="s">
         <v>49</v>
       </c>
       <c r="I26" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>astrobotic.jpg</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="I27" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>blueorigin.jpg</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I28" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>planet.jpg</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>205</v>
-      </c>
       <c r="I29" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>slingshotaerospace.jpg</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="H30" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>213</v>
-      </c>
       <c r="I30" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>axiomspace.jpg</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I31" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>intuitivemachines.jpg</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="F32" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="H32" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="I32" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>astranis.jpg</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D33" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="E33" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="F33" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="G33" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="H33" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="I33" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>hermeus.jpg</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="E34" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="G34" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="H34" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="I34" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>boomsupersonic.jpg</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="F35" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="H35" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="I35" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>skydio.jpg</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="G36" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="H36" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="I36" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>jobyaviation.jpg</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="H37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="I37" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>archer.jpg</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>274</v>
-      </c>
       <c r="I38" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>leolabs.jpg</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H39" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="I39" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="I39" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>fireflyspace.jpg</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="H40" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="I40" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I40:I41" si="3">CONCATENATE(MID(B40,FIND("://",B40) + 2 + 1,FIND(".",B40) - (FIND("://",B40) + 2)),"jpg")</f>
         <v>xwing.jpg</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="I41" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>durin.jpg</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I42" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>aalo.jpg</v>
+        <v>297</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I43" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(MID(B43,FIND("://",B43) + 2 + 1,FIND(".",B43) - (FIND("://",B43) + 2)),"jpg")</f>
         <v>buildgiantrobots.jpg</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D44" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="I44" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>basepowercompany.jpg</v>
+        <v>310</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="G45" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="H45" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="I45" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I45:I46" si="4">CONCATENATE(MID(B45,FIND("://",B45) + 2 + 1,FIND(".",B45) - (FIND("://",B45) + 2)),"jpg")</f>
         <v>reflectorbital.jpg</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="G46" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="H46" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="H46" s="13" t="s">
-        <v>330</v>
-      </c>
       <c r="I46" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>appliedintuition.jpg</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="16" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>116</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
@@ -3915,322 +3809,322 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="G48" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="H48" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="I48" s="11" t="str">
-        <f t="shared" ref="I48:I99" si="2">CONCATENATE(MID(B48,FIND("://",B48) + 2 + 1,FIND(".",B48) - (FIND("://",B48) + 2)),"jpg")</f>
+        <f t="shared" ref="I48:I97" si="5">CONCATENATE(MID(B48,FIND("://",B48) + 2 + 1,FIND(".",B48) - (FIND("://",B48) + 2)),"jpg")</f>
         <v>vulcanforms.jpg</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="H49" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="I49" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>figure.jpg</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="H50" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="I50" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>path-robotics.jpg</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="I51" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>iconbuild.jpg</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>376</v>
-      </c>
       <c r="I52" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>oklo.jpg</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="H53" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="I53" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>antoraenergy.jpg</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="H54" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>391</v>
-      </c>
       <c r="I54" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>xendee.jpg</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="H55" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>399</v>
-      </c>
       <c r="I55" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>cfs.jpg</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>407</v>
-      </c>
       <c r="I56" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>flyzipline.jpg</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="D57" s="7" t="s">
         <v>116</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="I57" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>pipedreamlabs.jpg</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>49</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>49</v>
@@ -4239,1162 +4133,1111 @@
         <v>49</v>
       </c>
       <c r="I58" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>www.jpg</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="7" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>419</v>
       </c>
       <c r="I59" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>getcruise.jpg</v>
+        <f t="shared" si="5"/>
+        <v>saildrone.jpg</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>430</v>
+        <v>235</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I60" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>saildrone.jpg</v>
+        <f t="shared" si="5"/>
+        <v>vorto.jpg</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>442</v>
+        <v>432</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>433</v>
       </c>
       <c r="I61" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>vorto.jpg</v>
+        <f t="shared" si="5"/>
+        <v>shield.jpg</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>387</v>
+        <v>103</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="I62" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>shield.jpg</v>
+        <f t="shared" si="5"/>
+        <v>divergent3d.jpg</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>453</v>
+        <v>103</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="I63" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>apeel.jpg</v>
+        <f t="shared" si="5"/>
+        <v>zeitview.jpg</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>459</v>
+        <v>94</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>460</v>
+        <v>19</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>462</v>
+        <v>96</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="I64" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>divergent3d.jpg</v>
+        <f t="shared" si="5"/>
+        <v>radiantnuclear.jpg</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>469</v>
+        <v>12</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>473</v>
+        <v>456</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="I65" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>zeitview.jpg</v>
+        <f t="shared" si="5"/>
+        <v>ablspacesystems.jpg</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="7" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>94</v>
+        <v>459</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>19</v>
+        <v>460</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>96</v>
+        <v>461</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>97</v>
+        <v>462</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>476</v>
+        <v>463</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>464</v>
       </c>
       <c r="I66" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>radiantnuclear.jpg</v>
+        <f t="shared" si="5"/>
+        <v>spinlaunch.jpg</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="I67" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>ablspacesystems.jpg</v>
+        <f t="shared" si="5"/>
+        <v>umbra.jpg</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="7" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="I68" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>spinlaunch.jpg</v>
+        <f t="shared" si="5"/>
+        <v>machinalabs.jpg</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>494</v>
+        <v>103</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>485</v>
       </c>
       <c r="I69" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>umbra.jpg</v>
+        <f t="shared" si="5"/>
+        <v>inviarobotics.jpg</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>502</v>
+        <v>103</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>506</v>
+        <v>491</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>492</v>
       </c>
       <c r="I70" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>machinalabs.jpg</v>
+        <f t="shared" si="5"/>
+        <v>spartanradar.jpg</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>510</v>
+        <v>103</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>514</v>
+        <v>498</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="I71" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>inviarobotics.jpg</v>
+        <f t="shared" si="5"/>
+        <v>arcboats.jpg</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>518</v>
+        <v>103</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="I72" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>spartanradar.jpg</v>
+        <f t="shared" si="5"/>
+        <v>vastspace.jpg</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="7" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D73" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="I73" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>arcboats.jpg</v>
+        <f t="shared" si="5"/>
+        <v>freeform.jpg</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>536</v>
+        <v>519</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>520</v>
       </c>
       <c r="I74" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>vastspace.jpg</v>
+        <f t="shared" si="5"/>
+        <v>firstresonance.jpg</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="I75" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>freeform.jpg</v>
+        <f t="shared" si="5"/>
+        <v>epsilon3.jpg</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="D76" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>550</v>
+        <v>533</v>
+      </c>
+      <c r="H76" s="7" t="s">
+        <v>534</v>
       </c>
       <c r="I76" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>firstresonance.jpg</v>
+        <f t="shared" si="5"/>
+        <v>harbingerev.jpg</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="7" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>469</v>
+        <v>12</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>557</v>
+        <v>540</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>541</v>
       </c>
       <c r="I77" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>epsilon3.jpg</v>
+        <f t="shared" si="5"/>
+        <v>impulsespace.jpg</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>559</v>
+        <v>542</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>543</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>561</v>
+        <v>103</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="I78" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>harbingerev.jpg</v>
+        <f t="shared" si="5"/>
+        <v>chaosind.jpg</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="7" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>572</v>
+        <v>554</v>
+      </c>
+      <c r="H79" s="7" t="s">
+        <v>555</v>
       </c>
       <c r="I79" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>impulsespace.jpg</v>
+        <f t="shared" si="5"/>
+        <v>k2space.jpg</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>574</v>
+        <v>556</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>557</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D80" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>577</v>
+        <v>560</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
       <c r="I80" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>chaosind.jpg</v>
+        <f t="shared" si="5"/>
+        <v>galvanick.jpg</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="7" t="s">
-        <v>580</v>
+        <v>563</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>581</v>
+        <v>564</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>585</v>
+        <v>568</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>586</v>
+        <v>569</v>
       </c>
       <c r="I81" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>k2space.jpg</v>
+        <f t="shared" si="5"/>
+        <v>astroforge.jpg</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="7" t="s">
-        <v>587</v>
+        <v>570</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>592</v>
+        <v>575</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>593</v>
+        <v>576</v>
       </c>
       <c r="I82" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>galvanick.jpg</v>
+        <f t="shared" si="5"/>
+        <v>inversion.jpg</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="7" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="I83" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>astroforge.jpg</v>
+        <f t="shared" si="5"/>
+        <v>anysignal.jpg</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="7" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>603</v>
+        <v>586</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>461</v>
+        <v>381</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>604</v>
+        <v>587</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="I84" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>inversion.jpg</v>
+        <f t="shared" si="5"/>
+        <v>firestormlabs.jpg</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>609</v>
+        <v>591</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>592</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="D85" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>611</v>
+        <v>594</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>612</v>
+        <v>595</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>614</v>
+        <v>596</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="I85" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>anysignal.jpg</v>
+        <f t="shared" si="5"/>
+        <v>arbor.jpg</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="7" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>387</v>
+        <v>103</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>618</v>
+        <v>601</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>619</v>
+        <v>602</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
       <c r="I86" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>firestormlabs.jpg</v>
+        <f t="shared" si="5"/>
+        <v>oursky.jpg</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>622</v>
+        <v>605</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>623</v>
+        <v>606</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>627</v>
-      </c>
-      <c r="H87" s="6" t="s">
-        <v>628</v>
+        <v>610</v>
+      </c>
+      <c r="H87" s="7" t="s">
+        <v>611</v>
       </c>
       <c r="I87" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>arbor.jpg</v>
+        <f t="shared" si="5"/>
+        <v>senrasystems.jpg</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>630</v>
+        <v>612</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>613</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>103</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="I88" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>oursky.jpg</v>
+        <f t="shared" si="5"/>
+        <v>hgen.jpg</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="7" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="I89" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>senrasystems.jpg</v>
+        <f t="shared" si="5"/>
+        <v>ethosspace.jpg</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="7" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>649</v>
+        <v>631</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="I90" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>hgen.jpg</v>
+        <f t="shared" si="5"/>
+        <v>openx.jpg</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="7" t="s">
-        <v>650</v>
+        <v>633</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>651</v>
+        <v>634</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>652</v>
+        <v>635</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>653</v>
+        <v>103</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="I91" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>ethosspace.jpg</v>
+        <f t="shared" si="5"/>
+        <v>stelleng.jpg</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="7" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>664</v>
+        <v>645</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>646</v>
       </c>
       <c r="I92" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>openx.jpg</v>
+        <f t="shared" si="5"/>
+        <v>sift.jpg</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="7" t="s">
-        <v>665</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>666</v>
+        <v>647</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>648</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>668</v>
+        <v>235</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>670</v>
+        <v>651</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>672</v>
+        <v>652</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>653</v>
       </c>
       <c r="I93" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>stelleng.jpg</v>
+        <f t="shared" si="5"/>
+        <v>exoterracorp.jpg</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="I94" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>sift.jpg</v>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>682</v>
+        <v>656</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>685</v>
-      </c>
-      <c r="G95" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>687</v>
+        <v>164</v>
       </c>
       <c r="I95" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>exoterracorp.jpg</v>
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="7" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>689</v>
+        <v>103</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>659</v>
       </c>
       <c r="I96" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="7" t="s">
-        <v>690</v>
+        <v>660</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="I97" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="G98" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="I98" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="I99" s="11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -5610,14 +5453,14 @@
     <hyperlink r:id="rId208" ref="B59"/>
     <hyperlink r:id="rId209" ref="E59"/>
     <hyperlink r:id="rId210" ref="F59"/>
-    <hyperlink r:id="rId211" ref="B60"/>
-    <hyperlink r:id="rId212" ref="E60"/>
-    <hyperlink r:id="rId213" ref="F60"/>
-    <hyperlink r:id="rId214" ref="H60"/>
-    <hyperlink r:id="rId215" ref="B61"/>
-    <hyperlink r:id="rId216" ref="E61"/>
-    <hyperlink r:id="rId217" ref="F61"/>
-    <hyperlink r:id="rId218" ref="H61"/>
+    <hyperlink r:id="rId211" ref="H59"/>
+    <hyperlink r:id="rId212" ref="B60"/>
+    <hyperlink r:id="rId213" ref="E60"/>
+    <hyperlink r:id="rId214" ref="F60"/>
+    <hyperlink r:id="rId215" ref="H60"/>
+    <hyperlink r:id="rId216" ref="B61"/>
+    <hyperlink r:id="rId217" ref="E61"/>
+    <hyperlink r:id="rId218" ref="F61"/>
     <hyperlink r:id="rId219" ref="B62"/>
     <hyperlink r:id="rId220" ref="E62"/>
     <hyperlink r:id="rId221" ref="F62"/>
@@ -5631,10 +5474,10 @@
     <hyperlink r:id="rId229" ref="B65"/>
     <hyperlink r:id="rId230" ref="E65"/>
     <hyperlink r:id="rId231" ref="F65"/>
-    <hyperlink r:id="rId232" ref="H65"/>
-    <hyperlink r:id="rId233" ref="B66"/>
-    <hyperlink r:id="rId234" ref="E66"/>
-    <hyperlink r:id="rId235" ref="F66"/>
+    <hyperlink r:id="rId232" ref="B66"/>
+    <hyperlink r:id="rId233" ref="E66"/>
+    <hyperlink r:id="rId234" ref="F66"/>
+    <hyperlink r:id="rId235" ref="H66"/>
     <hyperlink r:id="rId236" ref="B67"/>
     <hyperlink r:id="rId237" ref="E67"/>
     <hyperlink r:id="rId238" ref="F67"/>
@@ -5645,85 +5488,78 @@
     <hyperlink r:id="rId243" ref="B69"/>
     <hyperlink r:id="rId244" ref="E69"/>
     <hyperlink r:id="rId245" ref="F69"/>
-    <hyperlink r:id="rId246" ref="B70"/>
-    <hyperlink r:id="rId247" ref="E70"/>
-    <hyperlink r:id="rId248" ref="F70"/>
-    <hyperlink r:id="rId249" ref="H70"/>
+    <hyperlink r:id="rId246" ref="H69"/>
+    <hyperlink r:id="rId247" ref="B70"/>
+    <hyperlink r:id="rId248" ref="E70"/>
+    <hyperlink r:id="rId249" ref="F70"/>
     <hyperlink r:id="rId250" ref="B71"/>
     <hyperlink r:id="rId251" ref="E71"/>
     <hyperlink r:id="rId252" ref="F71"/>
-    <hyperlink r:id="rId253" ref="H71"/>
-    <hyperlink r:id="rId254" ref="B72"/>
-    <hyperlink r:id="rId255" ref="E72"/>
-    <hyperlink r:id="rId256" ref="F72"/>
-    <hyperlink r:id="rId257" ref="B73"/>
-    <hyperlink r:id="rId258" ref="E73"/>
-    <hyperlink r:id="rId259" ref="F73"/>
-    <hyperlink r:id="rId260" ref="B74"/>
-    <hyperlink r:id="rId261" ref="E74"/>
-    <hyperlink r:id="rId262" ref="F74"/>
+    <hyperlink r:id="rId253" ref="B72"/>
+    <hyperlink r:id="rId254" ref="E72"/>
+    <hyperlink r:id="rId255" ref="F72"/>
+    <hyperlink r:id="rId256" ref="B73"/>
+    <hyperlink r:id="rId257" ref="E73"/>
+    <hyperlink r:id="rId258" ref="F73"/>
+    <hyperlink r:id="rId259" ref="B74"/>
+    <hyperlink r:id="rId260" ref="E74"/>
+    <hyperlink r:id="rId261" ref="F74"/>
+    <hyperlink r:id="rId262" ref="H74"/>
     <hyperlink r:id="rId263" ref="B75"/>
     <hyperlink r:id="rId264" ref="E75"/>
     <hyperlink r:id="rId265" ref="F75"/>
     <hyperlink r:id="rId266" ref="B76"/>
     <hyperlink r:id="rId267" ref="E76"/>
     <hyperlink r:id="rId268" ref="F76"/>
-    <hyperlink r:id="rId269" ref="H76"/>
-    <hyperlink r:id="rId270" ref="B77"/>
-    <hyperlink r:id="rId271" ref="E77"/>
-    <hyperlink r:id="rId272" ref="F77"/>
-    <hyperlink r:id="rId273" ref="B78"/>
-    <hyperlink r:id="rId274" ref="E78"/>
-    <hyperlink r:id="rId275" ref="F78"/>
-    <hyperlink r:id="rId276" ref="B79"/>
-    <hyperlink r:id="rId277" ref="E79"/>
-    <hyperlink r:id="rId278" ref="F79"/>
-    <hyperlink r:id="rId279" ref="H79"/>
-    <hyperlink r:id="rId280" ref="E80"/>
-    <hyperlink r:id="rId281" ref="F80"/>
-    <hyperlink r:id="rId282" ref="B81"/>
-    <hyperlink r:id="rId283" ref="E81"/>
-    <hyperlink r:id="rId284" ref="F81"/>
-    <hyperlink r:id="rId285" ref="B82"/>
-    <hyperlink r:id="rId286" ref="E82"/>
-    <hyperlink r:id="rId287" ref="F82"/>
-    <hyperlink r:id="rId288" ref="B83"/>
-    <hyperlink r:id="rId289" ref="E83"/>
-    <hyperlink r:id="rId290" ref="F83"/>
-    <hyperlink r:id="rId291" ref="B84"/>
-    <hyperlink r:id="rId292" ref="E84"/>
-    <hyperlink r:id="rId293" ref="F84"/>
-    <hyperlink r:id="rId294" ref="B85"/>
-    <hyperlink r:id="rId295" ref="E85"/>
-    <hyperlink r:id="rId296" ref="F85"/>
-    <hyperlink r:id="rId297" ref="B86"/>
-    <hyperlink r:id="rId298" ref="E86"/>
-    <hyperlink r:id="rId299" ref="F86"/>
-    <hyperlink r:id="rId300" ref="E87"/>
-    <hyperlink r:id="rId301" ref="F87"/>
-    <hyperlink r:id="rId302" ref="H87"/>
-    <hyperlink r:id="rId303" ref="B88"/>
-    <hyperlink r:id="rId304" ref="E88"/>
-    <hyperlink r:id="rId305" ref="F88"/>
-    <hyperlink r:id="rId306" ref="E89"/>
-    <hyperlink r:id="rId307" ref="F89"/>
-    <hyperlink r:id="rId308" ref="E90"/>
-    <hyperlink r:id="rId309" ref="F90"/>
-    <hyperlink r:id="rId310" ref="E91"/>
-    <hyperlink r:id="rId311" ref="F91"/>
-    <hyperlink r:id="rId312" ref="E92"/>
-    <hyperlink r:id="rId313" ref="F92"/>
-    <hyperlink r:id="rId314" ref="H92"/>
-    <hyperlink r:id="rId315" ref="E93"/>
-    <hyperlink r:id="rId316" ref="F93"/>
-    <hyperlink r:id="rId317" ref="E94"/>
-    <hyperlink r:id="rId318" ref="F94"/>
-    <hyperlink r:id="rId319" ref="B95"/>
-    <hyperlink r:id="rId320" ref="E95"/>
-    <hyperlink r:id="rId321" ref="F95"/>
-    <hyperlink r:id="rId322" ref="H95"/>
-    <hyperlink r:id="rId323" ref="H98"/>
+    <hyperlink r:id="rId269" ref="B77"/>
+    <hyperlink r:id="rId270" ref="E77"/>
+    <hyperlink r:id="rId271" ref="F77"/>
+    <hyperlink r:id="rId272" ref="H77"/>
+    <hyperlink r:id="rId273" ref="E78"/>
+    <hyperlink r:id="rId274" ref="F78"/>
+    <hyperlink r:id="rId275" ref="B79"/>
+    <hyperlink r:id="rId276" ref="E79"/>
+    <hyperlink r:id="rId277" ref="F79"/>
+    <hyperlink r:id="rId278" ref="B80"/>
+    <hyperlink r:id="rId279" ref="E80"/>
+    <hyperlink r:id="rId280" ref="F80"/>
+    <hyperlink r:id="rId281" ref="B81"/>
+    <hyperlink r:id="rId282" ref="E81"/>
+    <hyperlink r:id="rId283" ref="F81"/>
+    <hyperlink r:id="rId284" ref="B82"/>
+    <hyperlink r:id="rId285" ref="E82"/>
+    <hyperlink r:id="rId286" ref="F82"/>
+    <hyperlink r:id="rId287" ref="B83"/>
+    <hyperlink r:id="rId288" ref="E83"/>
+    <hyperlink r:id="rId289" ref="F83"/>
+    <hyperlink r:id="rId290" ref="B84"/>
+    <hyperlink r:id="rId291" ref="E84"/>
+    <hyperlink r:id="rId292" ref="F84"/>
+    <hyperlink r:id="rId293" ref="E85"/>
+    <hyperlink r:id="rId294" ref="F85"/>
+    <hyperlink r:id="rId295" ref="H85"/>
+    <hyperlink r:id="rId296" ref="B86"/>
+    <hyperlink r:id="rId297" ref="E86"/>
+    <hyperlink r:id="rId298" ref="F86"/>
+    <hyperlink r:id="rId299" ref="E87"/>
+    <hyperlink r:id="rId300" ref="F87"/>
+    <hyperlink r:id="rId301" ref="E88"/>
+    <hyperlink r:id="rId302" ref="F88"/>
+    <hyperlink r:id="rId303" ref="E89"/>
+    <hyperlink r:id="rId304" ref="F89"/>
+    <hyperlink r:id="rId305" ref="E90"/>
+    <hyperlink r:id="rId306" ref="F90"/>
+    <hyperlink r:id="rId307" ref="H90"/>
+    <hyperlink r:id="rId308" ref="E91"/>
+    <hyperlink r:id="rId309" ref="F91"/>
+    <hyperlink r:id="rId310" ref="E92"/>
+    <hyperlink r:id="rId311" ref="F92"/>
+    <hyperlink r:id="rId312" ref="B93"/>
+    <hyperlink r:id="rId313" ref="E93"/>
+    <hyperlink r:id="rId314" ref="F93"/>
+    <hyperlink r:id="rId315" ref="H93"/>
+    <hyperlink r:id="rId316" ref="H96"/>
   </hyperlinks>
-  <drawing r:id="rId324"/>
+  <drawing r:id="rId317"/>
 </worksheet>
 </file>